--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opp06\source\Unique Play\baseball-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8446B99E-EC20-48BF-9FA2-1793FA3D63BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F468E4-E503-4896-B703-72B83187D424}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3465" yWindow="2850" windowWidth="12525" windowHeight="15435" xr2:uid="{19532877-1E51-4FEC-9152-8C1253CE6936}"/>
+    <workbookView xWindow="30855" yWindow="9495" windowWidth="12525" windowHeight="15435" xr2:uid="{19532877-1E51-4FEC-9152-8C1253CE6936}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="690">
   <si>
     <t>포수 장비지참시 무료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경기도 고양시 일산서구 중앙로 1601 고양시종합운동장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,10 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임원,spobee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-5391-5517</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -921,10 +913,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">게임원 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사랑(45), 서해(34), 계양(77), 동산(61), 미추홀(66), 홍예문(8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1269,10 +1257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임원NP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>크낙새(236), TQB(90)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2055,10 +2039,6 @@
   </si>
   <si>
     <t>파워리그야구장(파워리그)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임원, 캐치폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3197,12 +3177,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2043BF13-0AEE-4A03-92EC-059576228DE9}">
   <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.25" customWidth="1"/>
     <col min="5" max="5" width="44.75" customWidth="1"/>
     <col min="6" max="7" width="11.25" bestFit="1" customWidth="1"/>
@@ -3211,72 +3192,70 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>663</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F2" s="5">
         <v>126.98029251657</v>
@@ -3285,10 +3264,10 @@
         <v>37.733587454837497</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -3303,17 +3282,15 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F3" s="5">
         <v>126.826776098563</v>
@@ -3322,7 +3299,7 @@
         <v>37.495136199398303</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
@@ -3336,17 +3313,15 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F4" s="5">
         <v>126.969823665077</v>
@@ -3355,7 +3330,7 @@
         <v>37.588595702183</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
@@ -3369,17 +3344,15 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F5" s="5">
         <v>127.133087613128</v>
@@ -3388,7 +3361,7 @@
         <v>37.555616608541399</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -3402,17 +3375,15 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F6" s="5">
         <v>127.006613630606</v>
@@ -3421,10 +3392,10 @@
         <v>37.552952396232897</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>6</v>
@@ -3439,17 +3410,15 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F7" s="5">
         <v>127.133087613128</v>
@@ -3458,7 +3427,7 @@
         <v>37.555616608541399</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
@@ -3473,16 +3442,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F8" s="5">
         <v>127.32755151252201</v>
@@ -3491,7 +3460,7 @@
         <v>37.631136507672998</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -3503,33 +3472,31 @@
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="O8">
         <v>10000</v>
       </c>
       <c r="P8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F9" s="5">
         <v>127.325358220417</v>
@@ -3538,10 +3505,10 @@
         <v>37.688257371463997</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>6</v>
@@ -3554,10 +3521,10 @@
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="Q9" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -3565,16 +3532,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F10" s="5">
         <v>127.307147185085</v>
@@ -3583,10 +3550,10 @@
         <v>37.671007482134698</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>6</v>
@@ -3599,13 +3566,13 @@
         <v>16</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="O10">
         <v>10000</v>
       </c>
       <c r="P10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q10" t="s">
         <v>2</v>
@@ -3615,17 +3582,15 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F11" s="5">
         <v>127.155588662304</v>
@@ -3634,29 +3599,29 @@
         <v>37.669726266096497</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O11">
         <v>16000</v>
       </c>
       <c r="P11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="Q11" t="s">
         <v>5</v>
@@ -3667,16 +3632,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F12" s="5">
         <v>127.280919507047</v>
@@ -3685,7 +3650,7 @@
         <v>37.637610478270801</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -3697,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="O12">
         <v>15000</v>
@@ -3711,16 +3676,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F13" s="5">
         <v>126.752727424562</v>
@@ -3729,10 +3694,10 @@
         <v>37.593198694519003</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>6</v>
@@ -3745,13 +3710,13 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="O13" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="P13" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="Q13" t="s">
         <v>5</v>
@@ -3761,17 +3726,15 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F14" s="5">
         <v>126.62334965642199</v>
@@ -3780,10 +3743,10 @@
         <v>37.736068675610298</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>6</v>
@@ -3796,13 +3759,13 @@
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="O14">
         <v>15000</v>
       </c>
       <c r="Q14" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -3810,16 +3773,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F15" s="5">
         <v>126.923415502502</v>
@@ -3828,10 +3791,10 @@
         <v>37.1042137640435</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2">
@@ -3840,24 +3803,22 @@
       <c r="L15" s="3"/>
       <c r="M15" s="2"/>
       <c r="Q15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F16" s="5">
         <v>127.018990939885</v>
@@ -3866,7 +3827,7 @@
         <v>37.770757888018998</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
@@ -3878,13 +3839,13 @@
         <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O16">
         <v>12000</v>
       </c>
       <c r="P16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q16" t="s">
         <v>5</v>
@@ -3895,16 +3856,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F17" s="5">
         <v>127.30798184975301</v>
@@ -3913,10 +3874,10 @@
         <v>37.683175685381201</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>6</v>
@@ -3929,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O17">
         <v>12000</v>
@@ -3946,16 +3907,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F18" s="5">
         <v>126.75640248936099</v>
@@ -3964,10 +3925,10 @@
         <v>37.0543394281069</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>6</v>
@@ -3980,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O18">
         <v>12000</v>
@@ -3996,17 +3957,15 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F19" s="5">
         <v>126.98029251657</v>
@@ -4015,10 +3974,10 @@
         <v>37.733587454837497</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>6</v>
@@ -4033,17 +3992,15 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F20" s="5">
         <v>127.48503368330999</v>
@@ -4052,10 +4009,10 @@
         <v>37.7820574742343</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>6</v>
@@ -4068,24 +4025,22 @@
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F21" s="5">
         <v>126.983493623012</v>
@@ -4094,10 +4049,10 @@
         <v>37.724635898215602</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>6</v>
@@ -4110,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O21">
         <v>15000</v>
@@ -4126,17 +4081,15 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F22" s="5">
         <v>127.190711336546</v>
@@ -4145,10 +4098,10 @@
         <v>37.630280173515303</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>6</v>
@@ -4161,7 +4114,7 @@
         <v>16</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O22">
         <v>10000</v>
@@ -4174,17 +4127,15 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F23" s="5">
         <v>127.190711336546</v>
@@ -4193,7 +4144,7 @@
         <v>37.630280173515303</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
@@ -4205,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O23">
         <v>12000</v>
@@ -4221,17 +4172,15 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F24" s="5">
         <v>127.489464744551</v>
@@ -4240,10 +4189,10 @@
         <v>37.481415388693001</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>6</v>
@@ -4258,17 +4207,15 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F25" s="5">
         <v>126.80428079959999</v>
@@ -4277,10 +4224,10 @@
         <v>37.6805899595835</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>6</v>
@@ -4293,7 +4240,7 @@
         <v>16</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O25">
         <v>10000</v>
@@ -4306,17 +4253,15 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F26" s="5">
         <v>127.065520334737</v>
@@ -4325,10 +4270,10 @@
         <v>37.774366683882597</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>6</v>
@@ -4341,33 +4286,31 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O26">
         <v>10000</v>
       </c>
       <c r="P26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q26" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F27" s="5">
         <v>126.552539179411</v>
@@ -4376,10 +4319,10 @@
         <v>37.728761198470302</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>6</v>
@@ -4392,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="O27">
         <v>15000</v>
@@ -4408,17 +4351,15 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F28" s="5">
         <v>126.784181077868</v>
@@ -4427,10 +4368,10 @@
         <v>37.6877915328228</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>6</v>
@@ -4443,13 +4384,13 @@
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O28">
         <v>15000</v>
       </c>
       <c r="Q28" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -4457,16 +4398,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F29" s="5">
         <v>127.15094637378201</v>
@@ -4475,10 +4416,10 @@
         <v>37.555605940008199</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>6</v>
@@ -4491,13 +4432,13 @@
         <v>16</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O29" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q29" t="s">
         <v>2</v>
@@ -4507,17 +4448,15 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F30" s="5">
         <v>127.31094065842601</v>
@@ -4526,10 +4465,10 @@
         <v>37.5575094432591</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>6</v>
@@ -4542,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O30">
         <v>10000</v>
@@ -4555,17 +4494,15 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F31" s="5">
         <v>126.689867990086</v>
@@ -4574,10 +4511,10 @@
         <v>37.780179003466898</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>6</v>
@@ -4590,33 +4527,31 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O31">
         <v>10000</v>
       </c>
       <c r="P31" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F32" s="5">
         <v>126.97971616626801</v>
@@ -4625,7 +4560,7 @@
         <v>37.733789174430903</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
@@ -4637,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q32" t="s">
         <v>4</v>
@@ -4647,17 +4582,15 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F33" s="5">
         <v>127.13173295802299</v>
@@ -4666,10 +4599,10 @@
         <v>37.1233832235609</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>6</v>
@@ -4682,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q33" t="s">
         <v>4</v>
@@ -4693,16 +4626,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F34" s="5">
         <v>126.62009663319</v>
@@ -4711,10 +4644,10 @@
         <v>37.433852444442302</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>6</v>
@@ -4727,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O34">
         <v>15000</v>
@@ -4736,24 +4669,22 @@
         <v>3</v>
       </c>
       <c r="Q34" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F35" s="5">
         <v>127.108910433736</v>
@@ -4762,10 +4693,10 @@
         <v>37.677595498400798</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>6</v>
@@ -4780,17 +4711,15 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F36" s="5">
         <v>126.689867990086</v>
@@ -4799,7 +4728,7 @@
         <v>37.780179003466898</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
@@ -4813,17 +4742,15 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F37" s="5">
         <v>127.280919507047</v>
@@ -4832,7 +4759,7 @@
         <v>37.637610478270801</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
@@ -4846,17 +4773,15 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F38" s="5">
         <v>127.133251774429</v>
@@ -4865,10 +4790,10 @@
         <v>37.842631027270997</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>6</v>
@@ -4883,17 +4808,15 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F39" s="5">
         <v>126.648320813963</v>
@@ -4902,10 +4825,10 @@
         <v>37.473562546515097</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>6</v>
@@ -4921,16 +4844,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F40" s="5">
         <v>127.201585835335</v>
@@ -4939,10 +4862,10 @@
         <v>37.645002188071203</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>6</v>
@@ -4953,24 +4876,22 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="Q40" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F41" s="5">
         <v>127.483943627515</v>
@@ -4979,7 +4900,7 @@
         <v>37.677427739987998</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
@@ -4993,17 +4914,15 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F42" s="5">
         <v>127.483943627515</v>
@@ -5012,10 +4931,10 @@
         <v>37.677427739987998</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>6</v>
@@ -5030,17 +4949,15 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F43" s="5">
         <v>127.17291365611599</v>
@@ -5049,10 +4966,10 @@
         <v>37.631104068657102</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>6</v>
@@ -5067,17 +4984,15 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F44" s="5">
         <v>126.72003219026401</v>
@@ -5086,7 +5001,7 @@
         <v>37.830430612925397</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
@@ -5100,17 +5015,15 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F45" s="5">
         <v>127.13125822665501</v>
@@ -5119,10 +5032,10 @@
         <v>37.573393498513603</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>6</v>
@@ -5137,17 +5050,15 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F46" s="5">
         <v>127.460396410859</v>
@@ -5156,7 +5067,7 @@
         <v>37.241504233411902</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
@@ -5170,17 +5081,15 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F47" s="5">
         <v>127.13125822665501</v>
@@ -5189,10 +5098,10 @@
         <v>37.573393498513603</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>6</v>
@@ -5201,7 +5110,7 @@
         <v>83</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M47" s="2"/>
     </row>
@@ -5209,17 +5118,15 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F48" s="5">
         <v>127.13125822665501</v>
@@ -5228,10 +5135,10 @@
         <v>37.573393498513603</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>6</v>
@@ -5246,17 +5153,15 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F49" s="5">
         <v>127.199825152822</v>
@@ -5265,7 +5170,7 @@
         <v>37.140501874220803</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
@@ -5279,17 +5184,15 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F50" s="5">
         <v>127.005739204572</v>
@@ -5298,10 +5201,10 @@
         <v>37.4839968574775</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>6</v>
@@ -5316,17 +5219,15 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F51" s="5">
         <v>127.489482276289</v>
@@ -5335,7 +5236,7 @@
         <v>37.482716360424497</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
@@ -5349,17 +5250,15 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F52" s="5">
         <v>127.09014757535201</v>
@@ -5368,7 +5267,7 @@
         <v>37.846124362616003</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
@@ -5382,17 +5281,15 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F53" s="5">
         <v>127.280919507047</v>
@@ -5401,7 +5298,7 @@
         <v>37.637610478270801</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
@@ -5415,17 +5312,15 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F54" s="5">
         <v>127.489464744551</v>
@@ -5434,7 +5329,7 @@
         <v>37.481415388693001</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
@@ -5448,17 +5343,15 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F55" s="5">
         <v>127.10485456485399</v>
@@ -5467,7 +5360,7 @@
         <v>37.676056698466901</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
@@ -5481,17 +5374,15 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F56" s="5">
         <v>126.58429821702801</v>
@@ -5500,7 +5391,7 @@
         <v>37.236256120853398</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
@@ -5514,17 +5405,15 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F57" s="5">
         <v>127.233097243975</v>
@@ -5533,7 +5422,7 @@
         <v>36.999967960581202</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
@@ -5547,17 +5436,15 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F58" s="5">
         <v>127.14685010543199</v>
@@ -5566,7 +5453,7 @@
         <v>38.2130786108103</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
@@ -5580,17 +5467,15 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F59" s="5">
         <v>127.14685010543199</v>
@@ -5599,7 +5484,7 @@
         <v>38.2130786108103</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
@@ -5613,17 +5498,15 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F60" s="5">
         <v>127.14685010543199</v>
@@ -5632,7 +5515,7 @@
         <v>38.2130786108103</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
@@ -5646,17 +5529,15 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F61" s="5">
         <v>127.243787071613</v>
@@ -5665,10 +5546,10 @@
         <v>37.784991109544599</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>6</v>
@@ -5683,17 +5564,15 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F62" s="5">
         <v>126.881176163833</v>
@@ -5702,7 +5581,7 @@
         <v>37.848682851441801</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
@@ -5716,17 +5595,15 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F63" s="5">
         <v>126.829629723287</v>
@@ -5735,7 +5612,7 @@
         <v>37.527234089385701</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
@@ -5749,17 +5626,15 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F64" s="5">
         <v>126.75640248936099</v>
@@ -5768,7 +5643,7 @@
         <v>37.0543394281069</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
@@ -5782,17 +5657,15 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F65" s="5">
         <v>126.874397459546</v>
@@ -5801,10 +5674,10 @@
         <v>37.659469209578802</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>6</v>
@@ -5813,7 +5686,7 @@
         <v>70</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M65" s="2"/>
     </row>
@@ -5821,17 +5694,15 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F66" s="5">
         <v>127.17399994493999</v>
@@ -5840,10 +5711,10 @@
         <v>37.616949782349003</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>6</v>
@@ -5852,7 +5723,7 @@
         <v>70</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M66" s="2"/>
     </row>
@@ -5860,17 +5731,15 @@
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F67" s="5">
         <v>126.73840521399001</v>
@@ -5879,10 +5748,10 @@
         <v>37.6503371262218</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>6</v>
@@ -5891,7 +5760,7 @@
         <v>119</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M67" s="2"/>
     </row>
@@ -5899,17 +5768,15 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F68" s="5">
         <v>126.616115673965</v>
@@ -5918,7 +5785,7 @@
         <v>37.543293375814798</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
@@ -5932,17 +5799,15 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F69" s="5">
         <v>126.875596605925</v>
@@ -5951,7 +5816,7 @@
         <v>37.568301290887</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
@@ -5965,17 +5830,15 @@
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F70" s="5">
         <v>127.17714999506499</v>
@@ -5984,10 +5847,10 @@
         <v>37.648018257578798</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>6</v>
@@ -6002,17 +5865,15 @@
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F71" s="5">
         <v>126.76873507950801</v>
@@ -6021,10 +5882,10 @@
         <v>37.547341745139001</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>6</v>
@@ -6033,7 +5894,7 @@
         <v>118</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M71" s="3"/>
     </row>
@@ -6041,17 +5902,15 @@
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F72" s="5">
         <v>127.036836332351</v>
@@ -6060,10 +5919,10 @@
         <v>37.196656242273797</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>6</v>
@@ -6079,16 +5938,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F73" s="5">
         <v>126.968784427771</v>
@@ -6098,26 +5957,26 @@
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3">
         <v>84</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O73">
         <v>12000</v>
       </c>
       <c r="P73" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q73" t="s">
         <v>5</v>
@@ -6128,16 +5987,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F74" s="5">
         <v>126.893470695697</v>
@@ -6146,10 +6005,10 @@
         <v>37.667661673332901</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>1</v>
@@ -6158,13 +6017,13 @@
         <v>61</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O74">
         <v>12000</v>
@@ -6181,16 +6040,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F75" s="5">
         <v>127.071483213533</v>
@@ -6200,18 +6059,18 @@
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O75">
         <v>12000</v>
@@ -6228,16 +6087,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F76" s="5">
         <v>126.785848444891</v>
@@ -6250,7 +6109,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M76" s="3"/>
     </row>
@@ -6259,16 +6118,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F77" s="5">
         <v>126.79609124932701</v>
@@ -6278,18 +6137,18 @@
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -6297,16 +6156,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F78" s="5">
         <v>127.113983416799</v>
@@ -6316,20 +6175,20 @@
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3">
         <v>90</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O78">
         <v>15000</v>
@@ -6346,16 +6205,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F79" s="5">
         <v>126.857061450476</v>
@@ -6368,13 +6227,13 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O79">
         <v>10000</v>
@@ -6388,16 +6247,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F80" s="5">
         <v>126.926017053143</v>
@@ -6410,13 +6269,13 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O80">
         <v>12000</v>
@@ -6433,16 +6292,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F81" s="5">
         <v>127.103524818745</v>
@@ -6455,7 +6314,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M81" s="3"/>
     </row>
@@ -6464,16 +6323,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F82" s="5">
         <v>126.824813766202</v>
@@ -6483,20 +6342,20 @@
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3">
         <v>190</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O82">
         <v>10000</v>
@@ -6510,16 +6369,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F83" s="5">
         <v>127.118262701722</v>
@@ -6529,29 +6388,29 @@
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3">
         <v>107</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O83">
         <v>10000</v>
       </c>
       <c r="P83" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q83" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -6559,16 +6418,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F84" s="5">
         <v>126.794958047188</v>
@@ -6578,20 +6437,20 @@
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3">
         <v>133</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="O84">
         <v>15000</v>
@@ -6608,16 +6467,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F85" s="5">
         <v>126.817580274799</v>
@@ -6630,19 +6489,19 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O85">
         <v>15000</v>
       </c>
       <c r="Q85" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -6650,16 +6509,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F86" s="5">
         <v>126.670525060103</v>
@@ -6669,26 +6528,26 @@
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3">
         <v>155</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O86" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P86" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q86" t="s">
         <v>2</v>
@@ -6699,16 +6558,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F87" s="5">
         <v>127.170490768199</v>
@@ -6718,20 +6577,20 @@
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3">
         <v>114</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O87">
         <v>10000</v>
@@ -6745,16 +6604,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F88" s="5">
         <v>127.171689776699</v>
@@ -6767,22 +6626,22 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O88">
         <v>10000</v>
       </c>
       <c r="P88" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q88" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -6790,16 +6649,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F89" s="5">
         <v>126.92037421316201</v>
@@ -6809,20 +6668,20 @@
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J89" s="3">
         <v>22</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q89" t="s">
         <v>4</v>
@@ -6833,16 +6692,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F90" s="5">
         <v>127.09014757535201</v>
@@ -6852,18 +6711,18 @@
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q90" t="s">
         <v>4</v>
@@ -6874,16 +6733,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F91" s="5">
         <v>127.095938557965</v>
@@ -6893,20 +6752,20 @@
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3">
         <v>136</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O91">
         <v>15000</v>
@@ -6915,7 +6774,7 @@
         <v>3</v>
       </c>
       <c r="Q91" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -6929,10 +6788,10 @@
         <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F92" s="5">
         <v>127.10054123654</v>
@@ -6945,7 +6804,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M92" s="3"/>
     </row>
@@ -6960,10 +6819,10 @@
         <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F93" s="5">
         <v>127.09931</v>
@@ -6976,7 +6835,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M93" s="3"/>
     </row>
@@ -6991,10 +6850,10 @@
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F94" s="5">
         <v>127.10140199999999</v>
@@ -7007,7 +6866,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M94" s="3"/>
     </row>
@@ -7016,16 +6875,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F95" s="5">
         <v>127.19921338653</v>
@@ -7034,10 +6893,10 @@
         <v>37.7036022271351</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>6</v>
@@ -7053,16 +6912,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F96" s="5">
         <v>126.84760152434001</v>
@@ -7072,7 +6931,7 @@
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3">
@@ -7086,16 +6945,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F97" s="5">
         <v>126.86968763087199</v>
@@ -7105,7 +6964,7 @@
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3">
@@ -7119,16 +6978,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F98" s="5">
         <v>127.18555940112201</v>
@@ -7138,14 +6997,14 @@
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3">
         <v>90</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M98" s="3"/>
     </row>
@@ -7154,16 +7013,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F99" s="5">
         <v>127.078962750117</v>
@@ -7172,13 +7031,13 @@
         <v>37.244910230438798</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K99" s="3">
         <v>157</v>
@@ -7191,16 +7050,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F100" s="5">
         <v>127.323585718633</v>
@@ -7210,14 +7069,14 @@
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3">
         <v>218</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M100" s="3"/>
     </row>
@@ -7226,16 +7085,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F101" s="5">
         <v>127.173756392648</v>
@@ -7245,14 +7104,14 @@
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3">
         <v>90</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M101" s="3"/>
     </row>
@@ -7261,16 +7120,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F102" s="5">
         <v>126.760477561267</v>
@@ -7280,7 +7139,7 @@
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3">
@@ -7293,17 +7152,15 @@
       <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F103" s="5">
         <v>126.966574383718</v>
@@ -7313,7 +7170,7 @@
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3">
@@ -7326,17 +7183,15 @@
       <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F104" s="5">
         <v>126.85240464064</v>
@@ -7346,7 +7201,7 @@
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3">
@@ -7359,17 +7214,15 @@
       <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F105" s="5">
         <v>126.791834449029</v>
@@ -7379,7 +7232,7 @@
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3">
@@ -7392,17 +7245,15 @@
       <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F106" s="5">
         <v>127.10829580883301</v>
@@ -7412,7 +7263,7 @@
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3">
@@ -7425,17 +7276,15 @@
       <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F107" s="5">
         <v>127.08434913507099</v>
@@ -7445,14 +7294,14 @@
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3">
         <v>46</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M107" s="3"/>
     </row>
@@ -7460,17 +7309,15 @@
       <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F108" s="5">
         <v>127.140412984685</v>
@@ -7479,10 +7326,10 @@
         <v>37.519827626113099</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>1</v>
@@ -7497,17 +7344,15 @@
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F109" s="5">
         <v>126.947670462441</v>
@@ -7516,10 +7361,10 @@
         <v>37.546367300965102</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>1</v>
@@ -7534,17 +7379,15 @@
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F110" s="5">
         <v>127.049220333154</v>
@@ -7554,7 +7397,7 @@
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3">
@@ -7567,17 +7410,15 @@
       <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F111" s="5">
         <v>126.897193726312</v>
@@ -7586,10 +7427,10 @@
         <v>37.670346293222401</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>1</v>
@@ -7604,17 +7445,15 @@
       <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F112" s="5">
         <v>126.957161142602</v>
@@ -7624,7 +7463,7 @@
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3">
@@ -7637,17 +7476,15 @@
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F113" s="5">
         <v>127.164910689427</v>
@@ -7657,7 +7494,7 @@
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3">
@@ -7670,17 +7507,15 @@
       <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F114" s="5">
         <v>127.009224962638</v>
@@ -7690,7 +7525,7 @@
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3">
@@ -7703,17 +7538,15 @@
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F115" s="5">
         <v>127.05081505116</v>
@@ -7723,14 +7556,14 @@
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3">
         <v>66</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M115" s="3"/>
     </row>
@@ -7738,17 +7571,15 @@
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F116" s="5">
         <v>126.879101446691</v>
@@ -7758,7 +7589,7 @@
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3">
@@ -7771,17 +7602,15 @@
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F117" s="5">
         <v>126.885271557989</v>
@@ -7791,7 +7620,7 @@
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3">
@@ -7804,17 +7633,15 @@
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F118" s="5">
         <v>127.047878820599</v>
@@ -7823,10 +7650,10 @@
         <v>37.678630746154397</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>6</v>
@@ -7841,17 +7668,15 @@
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F119" s="5">
         <v>127.10905942689401</v>
@@ -7860,10 +7685,10 @@
         <v>37.612057817521197</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>6</v>
@@ -7878,17 +7703,15 @@
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F120" s="5">
         <v>127.14984498925701</v>
@@ -7897,10 +7720,10 @@
         <v>37.658813822774903</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>6</v>
@@ -7915,17 +7738,15 @@
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F121" s="5">
         <v>127.09755839104101</v>
@@ -7935,7 +7756,7 @@
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3">
@@ -7948,17 +7769,15 @@
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F122" s="5">
         <v>126.764126121557</v>
@@ -7967,13 +7786,13 @@
         <v>37.6165720319771</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K122" s="3">
         <v>141</v>
@@ -7985,17 +7804,15 @@
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" s="5">
         <v>126.92696668278001</v>
@@ -8004,10 +7821,10 @@
         <v>37.5046903728567</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>6</v>
@@ -8022,17 +7839,15 @@
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F124" s="5">
         <v>126.653564460436</v>
@@ -8041,10 +7856,10 @@
         <v>37.474940357459801</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>6</v>
@@ -8059,17 +7874,15 @@
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F125" s="5">
         <v>126.64923649192301</v>
@@ -8079,14 +7892,14 @@
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3">
         <v>182</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M125" s="3"/>
     </row>
@@ -8094,17 +7907,15 @@
       <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F126" s="5">
         <v>126.67244497164501</v>
@@ -8113,10 +7924,10 @@
         <v>37.381371724328702</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>1</v>
@@ -8125,7 +7936,7 @@
         <v>115</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M126" s="3"/>
     </row>
@@ -8133,17 +7944,15 @@
       <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F127" s="5">
         <v>126.616429768204</v>
@@ -8152,10 +7961,10 @@
         <v>37.351700273915696</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>6</v>
@@ -8164,7 +7973,7 @@
         <v>291</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M127" s="2"/>
     </row>
@@ -8172,17 +7981,15 @@
       <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F128" s="5">
         <v>126.71106648601101</v>
@@ -8192,7 +7999,7 @@
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3">
@@ -8205,17 +8012,15 @@
       <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F129" s="5">
         <v>126.69695020797</v>
@@ -8225,7 +8030,7 @@
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3">
@@ -8238,17 +8043,15 @@
       <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F130" s="5">
         <v>126.69072018148501</v>
@@ -8258,7 +8061,7 @@
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3">
@@ -8271,17 +8074,15 @@
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F131" s="5">
         <v>126.702253058209</v>
@@ -8290,10 +8091,10 @@
         <v>37.430555969594799</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>1</v>
@@ -8308,17 +8109,15 @@
       <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F132" s="5">
         <v>126.653586046371</v>
@@ -8327,10 +8126,10 @@
         <v>37.472222987121</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3">
@@ -8343,17 +8142,15 @@
       <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B133" s="2"/>
       <c r="C133" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F133" s="5">
         <v>126.46152185650401</v>
@@ -8363,7 +8160,7 @@
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3">
@@ -8376,17 +8173,15 @@
       <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B134" s="2"/>
       <c r="C134" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F134" s="5">
         <v>126.648320813963</v>
@@ -8395,10 +8190,10 @@
         <v>37.473562546515097</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>1</v>
@@ -8413,17 +8208,15 @@
       <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F135" s="5">
         <v>126.66050177250899</v>
@@ -8433,7 +8226,7 @@
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3">
@@ -8446,17 +8239,15 @@
       <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B136" s="2"/>
       <c r="C136" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F136" s="5">
         <v>126.623859958374</v>
@@ -8466,7 +8257,7 @@
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3">
@@ -8479,17 +8270,15 @@
       <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F137" s="5">
         <v>126.606379997419</v>
@@ -8499,14 +8288,14 @@
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3">
         <v>43</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M137" s="3"/>
     </row>
@@ -8514,17 +8303,15 @@
       <c r="A138" s="2">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F138" s="5">
         <v>126.98973295487301</v>
@@ -8534,14 +8321,14 @@
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3">
         <v>39</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M138" s="3"/>
     </row>
@@ -8549,17 +8336,15 @@
       <c r="A139" s="2">
         <v>138</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B139" s="2"/>
       <c r="C139" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F139" s="5">
         <v>127.084320566619</v>
@@ -8569,7 +8354,7 @@
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3">
@@ -8582,17 +8367,15 @@
       <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F140" s="4">
         <v>127.31442199999999</v>
@@ -8601,10 +8384,10 @@
         <v>37.510413999999997</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>1</v>
@@ -8619,17 +8402,15 @@
       <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F141" s="5">
         <v>126.99446478189201</v>
@@ -8638,10 +8419,10 @@
         <v>37.169994231512398</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J141" s="3" t="s">
         <v>6</v>
@@ -8656,17 +8437,15 @@
       <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F142" s="5">
         <v>126.89611797806801</v>
@@ -8676,14 +8455,14 @@
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3">
         <v>52</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M142" s="3"/>
     </row>
@@ -8691,17 +8470,15 @@
       <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F143" s="5">
         <v>126.84341208853201</v>
@@ -8711,7 +8488,7 @@
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3">
@@ -8724,17 +8501,15 @@
       <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F144" s="5">
         <v>127.021316019952</v>
@@ -8744,7 +8519,7 @@
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3">
@@ -8757,17 +8532,15 @@
       <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F145" s="5">
         <v>127.052345214959</v>
@@ -8777,7 +8550,7 @@
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3">
@@ -8790,17 +8563,15 @@
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F146" s="5">
         <v>127.04151549663899</v>
@@ -8810,14 +8581,14 @@
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3">
         <v>32</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M146" s="3"/>
     </row>
@@ -8825,17 +8596,15 @@
       <c r="A147" s="2">
         <v>146</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F147" s="5">
         <v>127.19152398880399</v>
@@ -8844,10 +8613,10 @@
         <v>38.017642763530098</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>1</v>
@@ -8862,17 +8631,15 @@
       <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F148" s="5">
         <v>126.798275891446</v>
@@ -8882,14 +8649,14 @@
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3">
         <v>118</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M148" s="3"/>
     </row>
@@ -8897,17 +8664,15 @@
       <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F149" s="5">
         <v>126.819310361028</v>
@@ -8917,16 +8682,16 @@
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K149" s="3">
         <v>118</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M149" s="3"/>
     </row>
@@ -8934,17 +8699,15 @@
       <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F150" s="5">
         <v>127.12066282328701</v>
@@ -8953,10 +8716,10 @@
         <v>37.410412666570402</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>6</v>
@@ -8965,7 +8728,7 @@
         <v>151</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M150" s="3"/>
     </row>
@@ -8973,17 +8736,15 @@
       <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F151" s="5">
         <v>127.11882919137101</v>
@@ -8992,10 +8753,10 @@
         <v>37.422329590966001</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>6</v>
@@ -9010,17 +8771,15 @@
       <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F152" s="5">
         <v>127.49144950563699</v>
@@ -9030,7 +8789,7 @@
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3">
@@ -9043,17 +8802,15 @@
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F153" s="5">
         <v>127.483019685675</v>
@@ -9063,14 +8820,14 @@
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3">
         <v>26</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M153" s="3"/>
     </row>
@@ -9078,17 +8835,15 @@
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F154" s="5">
         <v>126.848140228064</v>
@@ -9098,14 +8853,14 @@
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3">
         <v>20</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M154" s="3"/>
     </row>
@@ -9113,17 +8868,15 @@
       <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F155" s="5">
         <v>127.108453833423</v>
@@ -9133,7 +8886,7 @@
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3">
@@ -9146,17 +8899,15 @@
       <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F156" s="5">
         <v>127.003667677352</v>
@@ -9166,7 +8917,7 @@
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3">
@@ -9179,17 +8930,15 @@
       <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F157" s="5">
         <v>126.973665820734</v>
@@ -9199,7 +8948,7 @@
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3">
@@ -9212,17 +8961,15 @@
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F158" s="5">
         <v>126.97675039554601</v>
@@ -9232,7 +8979,7 @@
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3">
@@ -9245,17 +8992,15 @@
       <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F159" s="5">
         <v>127.00114612544</v>
@@ -9265,7 +9010,7 @@
       </c>
       <c r="H159" s="2"/>
       <c r="I159" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3">
@@ -9278,17 +9023,15 @@
       <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B160" s="2"/>
       <c r="C160" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F160" s="5">
         <v>126.975329613295</v>
@@ -9297,10 +9040,10 @@
         <v>37.206488071987899</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>6</v>
@@ -9315,17 +9058,15 @@
       <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F161" s="5">
         <v>126.979084544806</v>
@@ -9334,10 +9075,10 @@
         <v>37.217640190231897</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>6</v>
@@ -9352,17 +9093,15 @@
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F162" s="5">
         <v>126.754951863343</v>
@@ -9371,10 +9110,10 @@
         <v>37.404756519044902</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>1</v>
@@ -9390,16 +9129,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F163" s="5">
         <v>126.76887391715699</v>
@@ -9408,10 +9147,10 @@
         <v>37.311153548172001</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>6</v>
@@ -9427,16 +9166,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F164" s="5">
         <v>126.76068876373201</v>
@@ -9446,7 +9185,7 @@
       </c>
       <c r="H164" s="2"/>
       <c r="I164" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J164" s="3"/>
       <c r="K164" s="3">
@@ -9460,16 +9199,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F165" s="5">
         <v>126.828827963207</v>
@@ -9479,7 +9218,7 @@
       </c>
       <c r="H165" s="2"/>
       <c r="I165" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J165" s="3"/>
       <c r="K165" s="3">
@@ -9493,16 +9232,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F166" s="5">
         <v>126.736685672387</v>
@@ -9511,10 +9250,10 @@
         <v>37.323506123519103</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J166" s="3" t="s">
         <v>6</v>
@@ -9530,16 +9269,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F167" s="5">
         <v>126.81564453428901</v>
@@ -9548,10 +9287,10 @@
         <v>37.319871151879802</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J167" s="3" t="s">
         <v>6</v>
@@ -9566,17 +9305,15 @@
       <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F168" s="5">
         <v>127.323751297252</v>
@@ -9586,7 +9323,7 @@
       </c>
       <c r="H168" s="2"/>
       <c r="I168" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J168" s="3"/>
       <c r="K168" s="3">
@@ -9599,17 +9336,15 @@
       <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F169" s="5">
         <v>126.984064021866</v>
@@ -9618,10 +9353,10 @@
         <v>37.815269430466699</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J169" s="3" t="s">
         <v>1</v>
@@ -9636,17 +9371,15 @@
       <c r="A170" s="2">
         <v>169</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F170" s="5">
         <v>126.99619278927599</v>
@@ -9655,10 +9388,10 @@
         <v>37.911091938190701</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J170" s="3" t="s">
         <v>1</v>
@@ -9673,17 +9406,15 @@
       <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F171" s="5">
         <v>127.132841169404</v>
@@ -9692,10 +9423,10 @@
         <v>37.7047047731863</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J171" s="3" t="s">
         <v>1</v>
@@ -9704,7 +9435,7 @@
         <v>96</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M171" s="3"/>
     </row>
@@ -9712,17 +9443,15 @@
       <c r="A172" s="2">
         <v>171</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F172" s="5">
         <v>127.132841169404</v>
@@ -9731,10 +9460,10 @@
         <v>37.7047047731863</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>1</v>
@@ -9749,17 +9478,15 @@
       <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F173" s="5">
         <v>127.61957740034001</v>
@@ -9769,7 +9496,7 @@
       </c>
       <c r="H173" s="2"/>
       <c r="I173" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J173" s="3"/>
       <c r="K173" s="3">
@@ -9782,17 +9509,15 @@
       <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F174" s="5">
         <v>127.053642713895</v>
@@ -9801,10 +9526,10 @@
         <v>37.140946506679803</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>6</v>
@@ -9819,17 +9544,15 @@
       <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F175" s="5">
         <v>127.163468327307</v>
@@ -9838,10 +9561,10 @@
         <v>37.112130879488198</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J175" s="3" t="s">
         <v>6</v>
@@ -9856,17 +9579,15 @@
       <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F176" s="5">
         <v>127.247370055071</v>
@@ -9876,7 +9597,7 @@
       </c>
       <c r="H176" s="2"/>
       <c r="I176" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J176" s="3"/>
       <c r="K176" s="3">
@@ -9889,17 +9610,15 @@
       <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F177" s="5">
         <v>127.23316797875501</v>
@@ -9908,10 +9627,10 @@
         <v>37.273915138619202</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J177" s="3" t="s">
         <v>1</v>
@@ -9926,17 +9645,15 @@
       <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F178" s="5">
         <v>127.02337764406801</v>
@@ -9945,10 +9662,10 @@
         <v>37.759628373487097</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J178" s="3" t="s">
         <v>1</v>
@@ -9963,17 +9680,15 @@
       <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F179" s="5">
         <v>126.755100438215</v>
@@ -9983,7 +9698,7 @@
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J179" s="3"/>
       <c r="K179" s="3">
@@ -9996,17 +9711,15 @@
       <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B180" s="2"/>
       <c r="C180" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F180" s="5">
         <v>127.018501135525</v>
@@ -10016,7 +9729,7 @@
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J180" s="3"/>
       <c r="K180" s="3">
@@ -10029,17 +9742,15 @@
       <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F181" s="5">
         <v>126.975756882008</v>
@@ -10048,10 +9759,10 @@
         <v>37.293428121845501</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J181" s="3" t="s">
         <v>6</v>
@@ -10066,17 +9777,15 @@
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F182" s="5">
         <v>126.771716238698</v>
@@ -10085,10 +9794,10 @@
         <v>37.721233804043401</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>1</v>
@@ -10103,17 +9812,15 @@
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F183" s="5">
         <v>126.83111629374299</v>
@@ -10123,7 +9830,7 @@
       </c>
       <c r="H183" s="2"/>
       <c r="I183" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J183" s="3"/>
       <c r="K183" s="3">
@@ -10136,17 +9843,15 @@
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F184" s="5">
         <v>126.997422447123</v>
@@ -10156,7 +9861,7 @@
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3">
@@ -10169,17 +9874,15 @@
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B185" s="2"/>
       <c r="C185" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F185" s="5">
         <v>127.037761499252</v>
@@ -10189,7 +9892,7 @@
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J185" s="3"/>
       <c r="K185" s="3">
@@ -10202,17 +9905,15 @@
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F186" s="5">
         <v>127.06702880430799</v>
@@ -10222,7 +9923,7 @@
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J186" s="3"/>
       <c r="K186" s="3">
@@ -10235,17 +9936,15 @@
       <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F187" s="5">
         <v>127.18003787337101</v>
@@ -10255,7 +9954,7 @@
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3">
@@ -10268,17 +9967,15 @@
       <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F188" s="5">
         <v>126.861220718722</v>
@@ -10287,10 +9984,10 @@
         <v>37.646545172621998</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>16</v>
@@ -10305,17 +10002,15 @@
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F189" s="5">
         <v>127.09599185009201</v>
@@ -10329,17 +10024,15 @@
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F190" s="5">
         <v>126.74271949184801</v>
@@ -10353,9 +10046,7 @@
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
         <v>19</v>
       </c>
@@ -10363,7 +10054,7 @@
         <v>18</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F191" s="5">
         <v>126.829629723287</v>
